--- a/коэффициенты_расхода.xlsx
+++ b/коэффициенты_расхода.xlsx
@@ -5,11 +5,12 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="8mm" sheetId="1" state="visible" r:id="rId2"/>
     <sheet name="5mm" sheetId="2" state="visible" r:id="rId3"/>
+    <sheet name="11mm" sheetId="3" state="visible" r:id="rId4"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
   <extLst>
@@ -21,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="11">
   <si>
     <t xml:space="preserve">c_sh</t>
   </si>
@@ -63,7 +64,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="6">
+  <fonts count="7">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -101,6 +102,14 @@
       <family val="3"/>
       <charset val="1"/>
     </font>
+    <font>
+      <b val="true"/>
+      <sz val="10.5"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -144,7 +153,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -154,6 +163,10 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -176,7 +189,7 @@
   </sheetPr>
   <dimension ref="A1:F7"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="D16" activeCellId="0" sqref="D16"/>
     </sheetView>
   </sheetViews>
@@ -341,7 +354,7 @@
   <dimension ref="A1:F7"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F23" activeCellId="0" sqref="F23"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -495,4 +508,144 @@
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
   </headerFooter>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:F7"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="E12" activeCellId="0" sqref="E12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetData>
+    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="1"/>
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" s="3" t="n">
+        <v>0.86</v>
+      </c>
+      <c r="C2" s="2"/>
+      <c r="D2" s="2"/>
+      <c r="E2" s="3" t="n">
+        <v>0.91</v>
+      </c>
+      <c r="F2" s="3" t="n">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" s="3" t="n">
+        <v>0.87</v>
+      </c>
+      <c r="C3" s="2"/>
+      <c r="D3" s="2"/>
+      <c r="E3" s="3" t="n">
+        <v>0.83</v>
+      </c>
+      <c r="F3" s="3" t="n">
+        <v>0.82</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4" s="3" t="n">
+        <v>0.87</v>
+      </c>
+      <c r="C4" s="2"/>
+      <c r="D4" s="2"/>
+      <c r="E4" s="3" t="n">
+        <v>0.91</v>
+      </c>
+      <c r="F4" s="3" t="n">
+        <v>0.89</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5" s="3" t="n">
+        <v>0.87</v>
+      </c>
+      <c r="C5" s="2"/>
+      <c r="D5" s="3" t="n">
+        <v>0.88</v>
+      </c>
+      <c r="E5" s="3" t="n">
+        <v>0.86</v>
+      </c>
+      <c r="F5" s="3" t="n">
+        <v>0.87</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B6" s="3" t="n">
+        <v>0.87</v>
+      </c>
+      <c r="C6" s="2"/>
+      <c r="D6" s="2"/>
+      <c r="E6" s="3" t="n">
+        <v>0.91</v>
+      </c>
+      <c r="F6" s="3" t="n">
+        <v>0.77</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B7" s="3" t="n">
+        <v>0.87</v>
+      </c>
+      <c r="C7" s="2"/>
+      <c r="D7" s="2"/>
+      <c r="E7" s="3" t="n">
+        <v>0.81</v>
+      </c>
+      <c r="F7" s="3" t="n">
+        <v>0.8</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
 </file>